--- a/biology/Zoologie/Jamides_carissima/Jamides_carissima.xlsx
+++ b/biology/Zoologie/Jamides_carissima/Jamides_carissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jamides carissima est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, originaire d'Océanie.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Jamides carissima a été décrite par le zoologiste britannique Arthur Gardiner Butler en 1876 sous le nom initial de Lampides carissima[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Jamides carissima a été décrite par le zoologiste britannique Arthur Gardiner Butler en 1876 sous le nom initial de Lampides carissima,.
 </t>
         </is>
       </c>
@@ -594,12 +612,14 @@
           <t>Distribution géographique et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'espèce est divisée en plusieurs sous-espèces géographiques :
-Jamides carissima carissima (Butler, [1876]) — aux Nouvelles-Hébrides[2].
-Jamides carissima susana D'Abrera, 1971 — en Nouvelle-Calédonie : à Grande Terre et aux îles Loyauté (Lifou)[2],[3].
-Jamides carissima thomasi Miller &amp; Miller, 1993 — aux Tonga (Vavaʻu)[4].</t>
+Jamides carissima carissima (Butler, ) — aux Nouvelles-Hébrides.
+Jamides carissima susana D'Abrera, 1971 — en Nouvelle-Calédonie : à Grande Terre et aux îles Loyauté (Lifou),.
+Jamides carissima thomasi Miller &amp; Miller, 1993 — aux Tonga (Vavaʻu).</t>
         </is>
       </c>
     </row>
@@ -627,9 +647,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France[5],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France,.
 </t>
         </is>
       </c>
